--- a/KeywordDriven_Framework/ExcelTestFiles/Object Repository.xlsx
+++ b/KeywordDriven_Framework/ExcelTestFiles/Object Repository.xlsx
@@ -54,9 +54,6 @@
     <t>//input[@name="userName"]</t>
   </si>
   <si>
-    <t>//input(@name="password")</t>
-  </si>
-  <si>
     <t>//input(@name="login")</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Locator Name</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -425,12 +425,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A2:E4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
@@ -442,7 +442,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -477,10 +477,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -489,13 +489,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1"/>
     </row>

--- a/KeywordDriven_Framework/ExcelTestFiles/Object Repository.xlsx
+++ b/KeywordDriven_Framework/ExcelTestFiles/Object Repository.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinksysuser\git\KeywordDriven_Framework\ExcelTestFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="RegistrationPage" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -54,9 +49,6 @@
     <t>//input[@name="userName"]</t>
   </si>
   <si>
-    <t>//input(@name="login")</t>
-  </si>
-  <si>
     <t>submit</t>
   </si>
   <si>
@@ -64,13 +56,16 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>//input[@name="login"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,7 +232,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,21 +409,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -437,12 +432,12 @@
     <col min="5" max="5" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -454,7 +449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -469,7 +464,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -477,25 +472,25 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -506,14 +501,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -522,7 +517,7 @@
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -539,188 +534,188 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>

--- a/KeywordDriven_Framework/ExcelTestFiles/Object Repository.xlsx
+++ b/KeywordDriven_Framework/ExcelTestFiles/Object Repository.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="RegistrationPage" sheetId="2" r:id="rId2"/>
+    <sheet name="Reservation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Locator Value</t>
   </si>
@@ -40,32 +40,44 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//input[@name='userName']</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>//input[@name="userName"]</t>
-  </si>
-  <si>
-    <t>submit</t>
+    <t>//input[@name='password']</t>
+  </si>
+  <si>
+    <t>btn_signin</t>
+  </si>
+  <si>
+    <t>//input[@name='login']</t>
   </si>
   <si>
     <t>Locator Name</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>//input[@name="login"]</t>
+    <t>//input[@src='/images/forms/continue.gif']</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Departingfrom</t>
+  </si>
+  <si>
+    <t>//select[@name='fromPort']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,12 +92,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -130,12 +136,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -420,15 +425,15 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -437,7 +442,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -457,10 +462,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -469,13 +474,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -484,28 +489,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -513,7 +517,7 @@
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -535,192 +539,34 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KeywordDriven_Framework/ExcelTestFiles/Object Repository.xlsx
+++ b/KeywordDriven_Framework/ExcelTestFiles/Object Repository.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinksysuser\git\KeywordDriven\KeywordDriven_Framework\ExcelTestFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Reservation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Locator Value</t>
   </si>
@@ -71,13 +76,28 @@
   </si>
   <si>
     <t>//select[@name='fromPort']</t>
+  </si>
+  <si>
+    <t>passCount</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Passanger Count</t>
+  </si>
+  <si>
+    <t>fromMonth</t>
+  </si>
+  <si>
+    <t>Departing On</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,21 +434,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -437,7 +457,7 @@
     <col min="5" max="5" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -454,7 +474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -469,7 +489,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -484,7 +504,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -505,14 +525,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -521,7 +541,7 @@
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -538,7 +558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -553,9 +573,9 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -567,6 +587,36 @@
         <v>13</v>
       </c>
       <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KeywordDriven_Framework/ExcelTestFiles/Object Repository.xlsx
+++ b/KeywordDriven_Framework/ExcelTestFiles/Object Repository.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Locator Value</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>S.No</t>
-  </si>
-  <si>
-    <t>Variable Name</t>
   </si>
   <si>
     <t>Locator Type</t>
@@ -445,7 +442,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,16 +459,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -482,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -494,13 +491,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -509,13 +506,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -529,7 +526,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,16 +543,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,13 +560,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -578,13 +575,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -593,13 +590,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -608,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1"/>
     </row>

--- a/KeywordDriven_Framework/ExcelTestFiles/Object Repository.xlsx
+++ b/KeywordDriven_Framework/ExcelTestFiles/Object Repository.xlsx
@@ -442,7 +442,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KeywordDriven_Framework/ExcelTestFiles/Object Repository.xlsx
+++ b/KeywordDriven_Framework/ExcelTestFiles/Object Repository.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Reservation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Locator Value</t>
   </si>
@@ -87,7 +87,31 @@
     <t>fromMonth</t>
   </si>
   <si>
-    <t>Departing On</t>
+    <t>Departing On Month</t>
+  </si>
+  <si>
+    <t>fromDay</t>
+  </si>
+  <si>
+    <t>Departing On Date</t>
+  </si>
+  <si>
+    <t>Arriving In</t>
+  </si>
+  <si>
+    <t>toPort</t>
+  </si>
+  <si>
+    <t>Returning Month</t>
+  </si>
+  <si>
+    <t>toMonth</t>
+  </si>
+  <si>
+    <t>toDay</t>
+  </si>
+  <si>
+    <t>Returning Date</t>
   </si>
 </sst>
 </file>
@@ -153,11 +177,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -442,7 +467,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,10 +548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +560,7 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -615,6 +640,66 @@
       </c>
       <c r="E5" s="1"/>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
